--- a/biology/Biologie cellulaire et moléculaire/Flagelline/Flagelline.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Flagelline/Flagelline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La flagelline est la protéine majoritaire structurale du filament flagellaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La flagelline est constituée de quatre domaines : D0, D1, D2, D3.
 Il existe différentes formes de flagelline, elles se distinguent par leur composition en acides aminés centraux, les extrémités N-terminale et C-terminale étant similaires de par leur composition. Leur poids moléculaire varie de 30 à 60 kDa en fonction des espèces bactériennes.
@@ -546,13 +560,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mobilité
-L’auto-assemblage des différentes molécules de flagelline en triple hélice, forment un axe creux central par lequel elles accèdent à l’extrémité du flagelle pour allonger celui-ci.
+          <t>Mobilité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’auto-assemblage des différentes molécules de flagelline en triple hélice, forment un axe creux central par lequel elles accèdent à l’extrémité du flagelle pour allonger celui-ci.
 La flagelline est synthétisée lorsque la bactérie a besoin de se déplacer. La bactérie peut changer sa mobilité en modifiant cette protéine : chez la majorité des bactéries il existe deux gènes codant deux formes différentes de la flagelline : H1 et H2. Il existe une corrélation entre l’expression de ces deux gènes : lorsque l’un est exprimé, l’autre est réprimé.
 Chez Escherichia coli, la flagelline est codée par le gène fliC.
 Chez Caulobacter crescentus, ce sont les gènes fliM, fliN et fliO qui codent la flagelline.
-Activation de l’immunité
-En général, la flagelline est un atout pour la bactérie, mais elle peut aussi être utilisée contre elle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Flagelline</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flagelline</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Rôles de la flagelline</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Activation de l’immunité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En général, la flagelline est un atout pour la bactérie, mais elle peut aussi être utilisée contre elle.
 Pour se défendre l’hôte active son système immunitaire inné grâce à une reconnaissance spécifique par des récepteurs extracellulaires (TLR5, FLS2) ou cytosoliques (IPAF) de la flagelline. Cette protéine peut également être considérée comme un antigène qui active le système immunitaire adaptatif, il y a alors production d’anticorps anti-flagelline.
 Les récepteurs TLR-5 (Toll-Like Receptor-5 ) et FLS2
 Certaines cellules reconnaissent spécifiquement la flagelline grâce à des récepteurs extracellulaires, chez les mammifères ce sont les TLR-5 et chez les plantes ce sont les FLS2, ces récepteurs ont des modes d’action identiques.
